--- a/outputs/SORs/SOR Testing_AMC Micro-Motion Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Micro-Motion Division.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -586,7 +586,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -657,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -955,7 +955,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1110,7 +1110,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1179,7 +1181,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1732,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1803,7 +1807,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1958,7 +1962,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1999,7 +2005,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2126,7 +2134,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2197,7 +2205,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2268,7 +2276,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2927,61 +2935,61 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>0.0238</v>
+        <v>0.0247</v>
       </c>
       <c r="H2" s="7" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.0496</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="L2" s="7" t="n">
         <v>0.012</v>
       </c>
-      <c r="I2" s="7" t="n">
-        <v>0.0119</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0.0478</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>0.0235</v>
-      </c>
-      <c r="L2" s="7" t="n">
-        <v>0.0116</v>
-      </c>
       <c r="M2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>0.0348</v>
+        <v>0.036</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>0.022</v>
+        <v>0.0227</v>
       </c>
       <c r="P2" s="7" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="Q2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="S2" s="7" t="n">
+        <v>0.0206</v>
+      </c>
+      <c r="T2" s="7" t="n">
         <v>0.0104</v>
       </c>
-      <c r="Q2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7" t="n">
-        <v>0.0316</v>
-      </c>
-      <c r="S2" s="7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T2" s="7" t="n">
-        <v>0.0101</v>
-      </c>
       <c r="U2" s="7" t="n">
-        <v>0.0312</v>
+        <v>0.0323</v>
       </c>
       <c r="V2" s="7" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="W2" s="7" t="n">
-        <v>0.1762</v>
+        <v>0.1822</v>
       </c>
     </row>
     <row r="3">
@@ -2998,61 +3006,61 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>0.02142</v>
+        <v>0.02223</v>
       </c>
       <c r="H3" s="7" t="n">
+        <v>0.01125</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>0.01107</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0.04464</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>0.02196</v>
+      </c>
+      <c r="L3" s="7" t="n">
         <v>0.0108</v>
       </c>
-      <c r="I3" s="7" t="n">
-        <v>0.01071</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>0.04302</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>0.02115</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>0.01044</v>
-      </c>
       <c r="M3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>0.03132</v>
+        <v>0.0324</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>0.0198</v>
+        <v>0.02043</v>
       </c>
       <c r="P3" s="7" t="n">
+        <v>0.00972</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7" t="n">
+        <v>0.02934</v>
+      </c>
+      <c r="S3" s="7" t="n">
+        <v>0.01854</v>
+      </c>
+      <c r="T3" s="7" t="n">
         <v>0.00936</v>
       </c>
-      <c r="Q3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7" t="n">
-        <v>0.02844</v>
-      </c>
-      <c r="S3" s="7" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="T3" s="7" t="n">
-        <v>0.00909</v>
-      </c>
       <c r="U3" s="7" t="n">
-        <v>0.02808</v>
+        <v>0.02907</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>0.0549</v>
+        <v>0.0567</v>
       </c>
       <c r="W3" s="7" t="n">
-        <v>0.15858</v>
+        <v>0.16398</v>
       </c>
     </row>
     <row r="4">
@@ -3069,7 +3077,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3347,7 +3355,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3418,7 +3426,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3489,7 +3497,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_AMC Micro-Motion Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Micro-Motion Division.xlsx
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>0.0833333333333333</v>
@@ -955,7 +955,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1665,7 +1665,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1807,7 +1807,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2282,7 +2282,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.0044</v>
+        <v>0.0045</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>0.0045</v>
@@ -2294,43 +2294,43 @@
         <v>0.0135</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.0091</v>
+        <v>0.0045</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2501,9 +2501,7 @@
         <v>0.6667</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="5" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -3098,40 +3096,40 @@
         <v>0.0109</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.011</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3304,9 +3302,7 @@
       <c r="K7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="7" t="n">
         <v>1</v>
       </c>
@@ -3355,7 +3351,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3426,7 +3422,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3497,7 +3493,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3518,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>0</v>
+        <v>0.0103</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>0</v>

--- a/outputs/SORs/SOR Testing_AMC Micro-Motion Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Micro-Motion Division.xlsx
@@ -586,7 +586,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -657,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -752,37 +752,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +955,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1110,9 +1110,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1181,9 +1179,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1665,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1736,7 +1732,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1807,7 +1803,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1962,9 +1958,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2005,9 +1999,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2134,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0</v>
+        <v>0.0226</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2205,7 +2197,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0</v>
+        <v>0.0226</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2276,7 +2268,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>0.0226</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2300,37 +2292,37 @@
         <v>0.0046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0</v>
+        <v>0.00451666666666667</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0</v>
+        <v>0.01355</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0</v>
+        <v>0.00451666666666667</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0</v>
+        <v>0.00451666666666667</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>0.00451666666666667</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
+        <v>0.01355</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>0.00451666666666667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0</v>
+        <v>0.00451666666666667</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0</v>
+        <v>0.00451666666666667</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0</v>
+        <v>0.01355</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="5">
@@ -2635,7 +2627,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.1064</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2706,7 +2698,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.1064</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2777,7 +2769,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.1064</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2801,37 +2793,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.06385</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.06385</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.06385</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.2554</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2925,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>0.0322</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3004,7 +2996,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>0.0322</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3075,7 +3067,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>0.0322</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3099,37 +3091,37 @@
         <v>0.011</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0</v>
+        <v>0.00644166666666667</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0</v>
+        <v>0.019325</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0</v>
+        <v>0.00644166666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0</v>
+        <v>0.00644166666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0</v>
+        <v>0.00644166666666667</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0</v>
+        <v>0.019325</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0</v>
+        <v>0.00644166666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0</v>
+        <v>0.00644166666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0</v>
+        <v>0.00644166666666667</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
+        <v>0.019325</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>0.0773</v>
       </c>
     </row>
     <row r="5">
@@ -3351,7 +3343,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0776</v>
+        <v>0.0595</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3422,7 +3414,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0776</v>
+        <v>0.0595</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3493,7 +3485,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.0776</v>
+        <v>0.0595</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3517,37 +3509,37 @@
         <v>0.0103</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="R10" s="7" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="S10" s="7" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="U10" s="7" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="V10" s="7" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="W10" s="7" t="n">
-        <v>0</v>
+        <v>0.1428</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Micro-Motion Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Micro-Motion Division.xlsx
@@ -586,7 +586,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -657,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -752,37 +752,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.375</v>
+        <v>0.33335</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.125</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.375</v>
+        <v>0.33335</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1.5</v>
+        <v>1.3334</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0</v>
+        <v>0.5882</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1732,7 +1732,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0</v>
+        <v>0.5882</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1803,7 +1803,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0</v>
+        <v>0.5882</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1824,40 +1824,40 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>0</v>
+        <v>0.7692</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0</v>
+        <v>0.0980333333333333</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0</v>
+        <v>0.0980333333333333</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0</v>
+        <v>0.0980333333333333</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>0</v>
+        <v>0.2941</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>0</v>
+        <v>0.0980333333333333</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0</v>
+        <v>0.0980333333333333</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>0</v>
+        <v>0.0980333333333333</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>0</v>
+        <v>0.2941</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>0</v>
+        <v>1.1764</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.0226</v>
+        <v>0.0271</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2197,7 +2197,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.0226</v>
+        <v>0.0271</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2268,13 +2268,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0226</v>
+        <v>0.0271</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.0045</v>
+        <v>0.0044</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>0.0045</v>
@@ -2292,10 +2292,10 @@
         <v>0.0046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.00451666666666667</v>
+        <v>0.0046</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.01355</v>
+        <v>0.0137</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>0.00451666666666667</v>
@@ -2494,12 +2494,8 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="5" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -2627,7 +2623,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.1064</v>
+        <v>0.1087</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2698,7 +2694,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.1064</v>
+        <v>0.1087</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2769,7 +2765,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.1064</v>
+        <v>0.1087</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2793,37 +2789,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06385</v>
+        <v>0.1205</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.06385</v>
+        <v>0.05435</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06385</v>
+        <v>0.05435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2554</v>
+        <v>0.2174</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.0322</v>
+        <v>0.0323</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2996,7 +2992,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.0322</v>
+        <v>0.0323</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3067,7 +3063,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0322</v>
+        <v>0.0323</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3091,37 +3087,37 @@
         <v>0.011</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.00644166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.019325</v>
+        <v>0.0219</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.00644166666666667</v>
+        <v>0.00538333333333333</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.00644166666666667</v>
+        <v>0.00538333333333333</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.00644166666666667</v>
+        <v>0.00538333333333333</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.019325</v>
+        <v>0.01615</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.00644166666666667</v>
+        <v>0.00538333333333333</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.00644166666666667</v>
+        <v>0.00538333333333333</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.00644166666666667</v>
+        <v>0.00538333333333333</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.019325</v>
+        <v>0.01615</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.0773</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="5">
@@ -3295,9 +3291,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="7"/>
       <c r="N7" s="7" t="n">
         <v>1</v>
       </c>
@@ -3343,7 +3337,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0595</v>
+        <v>0.06</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3414,7 +3408,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0595</v>
+        <v>0.06</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3485,7 +3479,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.0595</v>
+        <v>0.06</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3509,37 +3503,37 @@
         <v>0.0103</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>0.0357</v>
+        <v>0.0102</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>0.0119</v>
+        <v>0.01</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>0.0119</v>
+        <v>0.01</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>0.0119</v>
+        <v>0.01</v>
       </c>
       <c r="R10" s="7" t="n">
-        <v>0.0357</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="7" t="n">
-        <v>0.0119</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>0.0119</v>
+        <v>0.01</v>
       </c>
       <c r="U10" s="7" t="n">
-        <v>0.0119</v>
+        <v>0.01</v>
       </c>
       <c r="V10" s="7" t="n">
-        <v>0.0357</v>
+        <v>0.03</v>
       </c>
       <c r="W10" s="7" t="n">
-        <v>0.1428</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Micro-Motion Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Micro-Motion Division.xlsx
@@ -15,13 +15,12 @@
     <sheet name="West Chester Pennsylvania" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Seoul South Korea" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Bedford United Kingdom" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Silvestre Terrazas, Chihuahua " sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -141,16 +140,13 @@
   </si>
   <si>
     <t xml:space="preserve">Bedford United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silvestre Terrazas, Chihuahua Mexico Aerospace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -160,7 +156,6 @@
     <numFmt numFmtId="171" formatCode="0.0%"/>
     <numFmt numFmtId="172" formatCode="0.0%"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
-    <numFmt numFmtId="174" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -196,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -207,7 +202,6 @@
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +580,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -657,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -728,7 +722,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -758,258 +752,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1.3334</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +1428,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.5882</v>
+        <v>0.625</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1732,7 +1499,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.5882</v>
+        <v>0.625</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1803,7 +1570,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.5882</v>
+        <v>0.625</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1833,31 +1600,31 @@
         <v>0.7692</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0.0980333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0.0980333333333333</v>
+        <v>0.0892833333333333</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.0980333333333333</v>
+        <v>0.0892833333333333</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>0.2941</v>
+        <v>0.26785</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>0.0980333333333333</v>
+        <v>0.0892833333333333</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0.0980333333333333</v>
+        <v>0.0892833333333333</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>0.0980333333333333</v>
+        <v>0.0892833333333333</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>0.2941</v>
+        <v>0.26785</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>1.1764</v>
+        <v>1.0714</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1725,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1999,7 +1768,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2024,6 +1795,61 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2126,7 +1952,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.0271</v>
+        <v>0.0318</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2197,7 +2023,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.0271</v>
+        <v>0.0318</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2268,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0271</v>
+        <v>0.0318</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2298,31 +2124,31 @@
         <v>0.0137</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.00451666666666667</v>
+        <v>0.0047</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.00451666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.00451666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.01355</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.00451666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.00451666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.00451666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.01355</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0.0542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2496,9 +2322,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="O7" s="5"/>
       <c r="P7" s="5" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -2623,7 +2447,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.1087</v>
+        <v>0.1111</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2694,7 +2518,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.1087</v>
+        <v>0.1111</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2765,7 +2589,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.1087</v>
+        <v>0.1111</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2795,31 +2619,31 @@
         <v>0.1205</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.05435</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05435</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2174</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2745,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.0323</v>
+        <v>0.0433</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2992,7 +2816,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.0323</v>
+        <v>0.0433</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3063,7 +2887,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0323</v>
+        <v>0.0433</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3093,31 +2917,31 @@
         <v>0.0219</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.00538333333333333</v>
+        <v>0.0112</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.00538333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.00538333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.01615</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.00538333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.00538333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.00538333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.01615</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.0646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3295,9 +3119,7 @@
       <c r="N7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="7"/>
       <c r="P7" s="7" t="n">
         <v>1</v>
       </c>
@@ -3337,7 +3159,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.06</v>
+        <v>0.0909</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3408,7 +3230,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.06</v>
+        <v>0.0909</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3479,7 +3301,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.06</v>
+        <v>0.0909</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3509,31 +3331,31 @@
         <v>0.0102</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>0.01</v>
+        <v>0.0323</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>0.01</v>
+        <v>0.0129833333333333</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>0.01</v>
+        <v>0.0129833333333333</v>
       </c>
       <c r="R10" s="7" t="n">
-        <v>0.03</v>
+        <v>0.03895</v>
       </c>
       <c r="S10" s="7" t="n">
-        <v>0.01</v>
+        <v>0.0129833333333333</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>0.01</v>
+        <v>0.0129833333333333</v>
       </c>
       <c r="U10" s="7" t="n">
-        <v>0.01</v>
+        <v>0.0129833333333333</v>
       </c>
       <c r="V10" s="7" t="n">
-        <v>0.03</v>
+        <v>0.03895</v>
       </c>
       <c r="W10" s="7" t="n">
-        <v>0.12</v>
+        <v>0.1558</v>
       </c>
     </row>
   </sheetData>
